--- a/Modulo5/src/out/info_estados/Maryland.xlsx
+++ b/Modulo5/src/out/info_estados/Maryland.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="734" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="854" uniqueCount="50">
   <si>
     <t>state</t>
   </si>
@@ -40,10 +40,10 @@
     <t>fraction_votes</t>
   </si>
   <si>
-    <t>nueva_columna</t>
+    <t>nuevaColumna</t>
   </si>
   <si>
-    <t>columna_aumentada</t>
+    <t>slogan</t>
   </si>
   <si>
     <t>letra_inicial</t>
@@ -155,6 +155,12 @@
   </si>
   <si>
     <t>Ted Cruz</t>
+  </si>
+  <si>
+    <t>Un buen partido</t>
+  </si>
+  <si>
+    <t>No pobres en pais rico</t>
   </si>
   <si>
     <t>M</t>
@@ -593,14 +599,14 @@
       <c r="I2">
         <v>1</v>
       </c>
-      <c r="J2">
-        <v>3</v>
+      <c r="J2" t="s">
+        <v>47</v>
       </c>
       <c r="K2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L2">
-        <v>4</v>
+        <v>2470</v>
       </c>
       <c r="M2">
         <v>24001</v>
@@ -637,14 +643,14 @@
       <c r="I3">
         <v>1</v>
       </c>
-      <c r="J3">
-        <v>3</v>
+      <c r="J3" t="s">
+        <v>47</v>
       </c>
       <c r="K3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L3">
-        <v>4</v>
+        <v>2312</v>
       </c>
       <c r="M3">
         <v>24001</v>
@@ -681,14 +687,14 @@
       <c r="I4">
         <v>1</v>
       </c>
-      <c r="J4">
-        <v>3</v>
+      <c r="J4" t="s">
+        <v>48</v>
       </c>
       <c r="K4" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L4">
-        <v>4</v>
+        <v>6273</v>
       </c>
       <c r="M4">
         <v>24001</v>
@@ -725,14 +731,14 @@
       <c r="I5">
         <v>1</v>
       </c>
-      <c r="J5">
-        <v>3</v>
+      <c r="J5" t="s">
+        <v>48</v>
       </c>
       <c r="K5" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L5">
-        <v>4</v>
+        <v>1226</v>
       </c>
       <c r="M5">
         <v>24001</v>
@@ -769,14 +775,14 @@
       <c r="I6">
         <v>1</v>
       </c>
-      <c r="J6">
-        <v>3</v>
+      <c r="J6" t="s">
+        <v>48</v>
       </c>
       <c r="K6" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L6">
-        <v>4</v>
+        <v>1718</v>
       </c>
       <c r="M6">
         <v>24001</v>
@@ -813,14 +819,14 @@
       <c r="I7">
         <v>1</v>
       </c>
-      <c r="J7">
-        <v>3</v>
+      <c r="J7" t="s">
+        <v>47</v>
       </c>
       <c r="K7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L7">
-        <v>4</v>
+        <v>24129</v>
       </c>
       <c r="M7">
         <v>24003</v>
@@ -857,14 +863,14 @@
       <c r="I8">
         <v>1</v>
       </c>
-      <c r="J8">
-        <v>3</v>
+      <c r="J8" t="s">
+        <v>47</v>
       </c>
       <c r="K8" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L8">
-        <v>4</v>
+        <v>35660</v>
       </c>
       <c r="M8">
         <v>24003</v>
@@ -901,14 +907,14 @@
       <c r="I9">
         <v>1</v>
       </c>
-      <c r="J9">
-        <v>3</v>
+      <c r="J9" t="s">
+        <v>48</v>
       </c>
       <c r="K9" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L9">
-        <v>4</v>
+        <v>30712</v>
       </c>
       <c r="M9">
         <v>24003</v>
@@ -945,14 +951,14 @@
       <c r="I10">
         <v>1</v>
       </c>
-      <c r="J10">
-        <v>3</v>
+      <c r="J10" t="s">
+        <v>48</v>
       </c>
       <c r="K10" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L10">
-        <v>4</v>
+        <v>15117</v>
       </c>
       <c r="M10">
         <v>24003</v>
@@ -989,14 +995,14 @@
       <c r="I11">
         <v>1</v>
       </c>
-      <c r="J11">
-        <v>3</v>
+      <c r="J11" t="s">
+        <v>48</v>
       </c>
       <c r="K11" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L11">
-        <v>4</v>
+        <v>9270</v>
       </c>
       <c r="M11">
         <v>24003</v>
@@ -1033,14 +1039,14 @@
       <c r="I12">
         <v>1</v>
       </c>
-      <c r="J12">
-        <v>3</v>
+      <c r="J12" t="s">
+        <v>47</v>
       </c>
       <c r="K12" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L12">
-        <v>4</v>
+        <v>46780</v>
       </c>
       <c r="M12">
         <v>24005</v>
@@ -1077,14 +1083,14 @@
       <c r="I13">
         <v>1</v>
       </c>
-      <c r="J13">
-        <v>3</v>
+      <c r="J13" t="s">
+        <v>47</v>
       </c>
       <c r="K13" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L13">
-        <v>4</v>
+        <v>73100</v>
       </c>
       <c r="M13">
         <v>24005</v>
@@ -1121,14 +1127,14 @@
       <c r="I14">
         <v>1</v>
       </c>
-      <c r="J14">
-        <v>3</v>
+      <c r="J14" t="s">
+        <v>48</v>
       </c>
       <c r="K14" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L14">
-        <v>4</v>
+        <v>36524</v>
       </c>
       <c r="M14">
         <v>24005</v>
@@ -1165,14 +1171,14 @@
       <c r="I15">
         <v>1</v>
       </c>
-      <c r="J15">
-        <v>3</v>
+      <c r="J15" t="s">
+        <v>48</v>
       </c>
       <c r="K15" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L15">
-        <v>4</v>
+        <v>14275</v>
       </c>
       <c r="M15">
         <v>24005</v>
@@ -1209,14 +1215,14 @@
       <c r="I16">
         <v>1</v>
       </c>
-      <c r="J16">
-        <v>3</v>
+      <c r="J16" t="s">
+        <v>48</v>
       </c>
       <c r="K16" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L16">
-        <v>4</v>
+        <v>9952</v>
       </c>
       <c r="M16">
         <v>24005</v>
@@ -1253,14 +1259,14 @@
       <c r="I17">
         <v>1</v>
       </c>
-      <c r="J17">
-        <v>3</v>
+      <c r="J17" t="s">
+        <v>47</v>
       </c>
       <c r="K17" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L17">
-        <v>4</v>
+        <v>38711</v>
       </c>
       <c r="M17">
         <v>24510</v>
@@ -1297,14 +1303,14 @@
       <c r="I18">
         <v>1</v>
       </c>
-      <c r="J18">
-        <v>3</v>
+      <c r="J18" t="s">
+        <v>47</v>
       </c>
       <c r="K18" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L18">
-        <v>4</v>
+        <v>81116</v>
       </c>
       <c r="M18">
         <v>24510</v>
@@ -1341,14 +1347,14 @@
       <c r="I19">
         <v>1</v>
       </c>
-      <c r="J19">
-        <v>3</v>
+      <c r="J19" t="s">
+        <v>48</v>
       </c>
       <c r="K19" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L19">
-        <v>4</v>
+        <v>3951</v>
       </c>
       <c r="M19">
         <v>24510</v>
@@ -1385,14 +1391,14 @@
       <c r="I20">
         <v>1</v>
       </c>
-      <c r="J20">
-        <v>3</v>
+      <c r="J20" t="s">
+        <v>48</v>
       </c>
       <c r="K20" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L20">
-        <v>4</v>
+        <v>2623</v>
       </c>
       <c r="M20">
         <v>24510</v>
@@ -1429,14 +1435,14 @@
       <c r="I21">
         <v>1</v>
       </c>
-      <c r="J21">
-        <v>3</v>
+      <c r="J21" t="s">
+        <v>48</v>
       </c>
       <c r="K21" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L21">
-        <v>4</v>
+        <v>1811</v>
       </c>
       <c r="M21">
         <v>24510</v>
@@ -1473,14 +1479,14 @@
       <c r="I22">
         <v>1</v>
       </c>
-      <c r="J22">
-        <v>3</v>
+      <c r="J22" t="s">
+        <v>47</v>
       </c>
       <c r="K22" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L22">
-        <v>4</v>
+        <v>3248</v>
       </c>
       <c r="M22">
         <v>24009</v>
@@ -1517,14 +1523,14 @@
       <c r="I23">
         <v>1</v>
       </c>
-      <c r="J23">
-        <v>3</v>
+      <c r="J23" t="s">
+        <v>47</v>
       </c>
       <c r="K23" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L23">
-        <v>4</v>
+        <v>5169</v>
       </c>
       <c r="M23">
         <v>24009</v>
@@ -1561,14 +1567,14 @@
       <c r="I24">
         <v>1</v>
       </c>
-      <c r="J24">
-        <v>3</v>
+      <c r="J24" t="s">
+        <v>48</v>
       </c>
       <c r="K24" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L24">
-        <v>4</v>
+        <v>6361</v>
       </c>
       <c r="M24">
         <v>24009</v>
@@ -1605,14 +1611,14 @@
       <c r="I25">
         <v>1</v>
       </c>
-      <c r="J25">
-        <v>3</v>
+      <c r="J25" t="s">
+        <v>48</v>
       </c>
       <c r="K25" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L25">
-        <v>4</v>
+        <v>1899</v>
       </c>
       <c r="M25">
         <v>24009</v>
@@ -1649,14 +1655,14 @@
       <c r="I26">
         <v>1</v>
       </c>
-      <c r="J26">
-        <v>3</v>
+      <c r="J26" t="s">
+        <v>48</v>
       </c>
       <c r="K26" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L26">
-        <v>4</v>
+        <v>2241</v>
       </c>
       <c r="M26">
         <v>24009</v>
@@ -1693,14 +1699,14 @@
       <c r="I27">
         <v>1</v>
       </c>
-      <c r="J27">
-        <v>3</v>
+      <c r="J27" t="s">
+        <v>47</v>
       </c>
       <c r="K27" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L27">
-        <v>4</v>
+        <v>903</v>
       </c>
       <c r="M27">
         <v>24011</v>
@@ -1737,14 +1743,14 @@
       <c r="I28">
         <v>1</v>
       </c>
-      <c r="J28">
-        <v>3</v>
+      <c r="J28" t="s">
+        <v>47</v>
       </c>
       <c r="K28" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L28">
-        <v>4</v>
+        <v>1126</v>
       </c>
       <c r="M28">
         <v>24011</v>
@@ -1781,14 +1787,14 @@
       <c r="I29">
         <v>1</v>
       </c>
-      <c r="J29">
-        <v>3</v>
+      <c r="J29" t="s">
+        <v>48</v>
       </c>
       <c r="K29" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L29">
-        <v>4</v>
+        <v>2522</v>
       </c>
       <c r="M29">
         <v>24011</v>
@@ -1825,14 +1831,14 @@
       <c r="I30">
         <v>1</v>
       </c>
-      <c r="J30">
-        <v>3</v>
+      <c r="J30" t="s">
+        <v>48</v>
       </c>
       <c r="K30" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L30">
-        <v>4</v>
+        <v>503</v>
       </c>
       <c r="M30">
         <v>24011</v>
@@ -1869,14 +1875,14 @@
       <c r="I31">
         <v>1</v>
       </c>
-      <c r="J31">
-        <v>3</v>
+      <c r="J31" t="s">
+        <v>48</v>
       </c>
       <c r="K31" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L31">
-        <v>4</v>
+        <v>635</v>
       </c>
       <c r="M31">
         <v>24011</v>
@@ -1913,14 +1919,14 @@
       <c r="I32">
         <v>1</v>
       </c>
-      <c r="J32">
-        <v>3</v>
+      <c r="J32" t="s">
+        <v>47</v>
       </c>
       <c r="K32" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L32">
-        <v>4</v>
+        <v>6687</v>
       </c>
       <c r="M32">
         <v>24013</v>
@@ -1957,14 +1963,14 @@
       <c r="I33">
         <v>1</v>
       </c>
-      <c r="J33">
-        <v>3</v>
+      <c r="J33" t="s">
+        <v>47</v>
       </c>
       <c r="K33" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L33">
-        <v>4</v>
+        <v>6517</v>
       </c>
       <c r="M33">
         <v>24013</v>
@@ -2001,14 +2007,14 @@
       <c r="I34">
         <v>1</v>
       </c>
-      <c r="J34">
-        <v>3</v>
+      <c r="J34" t="s">
+        <v>48</v>
       </c>
       <c r="K34" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L34">
-        <v>4</v>
+        <v>16535</v>
       </c>
       <c r="M34">
         <v>24013</v>
@@ -2045,14 +2051,14 @@
       <c r="I35">
         <v>1</v>
       </c>
-      <c r="J35">
-        <v>3</v>
+      <c r="J35" t="s">
+        <v>48</v>
       </c>
       <c r="K35" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L35">
-        <v>4</v>
+        <v>6320</v>
       </c>
       <c r="M35">
         <v>24013</v>
@@ -2089,14 +2095,14 @@
       <c r="I36">
         <v>1</v>
       </c>
-      <c r="J36">
-        <v>3</v>
+      <c r="J36" t="s">
+        <v>48</v>
       </c>
       <c r="K36" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L36">
-        <v>4</v>
+        <v>5857</v>
       </c>
       <c r="M36">
         <v>24013</v>
@@ -2133,14 +2139,14 @@
       <c r="I37">
         <v>1</v>
       </c>
-      <c r="J37">
-        <v>3</v>
+      <c r="J37" t="s">
+        <v>47</v>
       </c>
       <c r="K37" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L37">
-        <v>4</v>
+        <v>3351</v>
       </c>
       <c r="M37">
         <v>24015</v>
@@ -2177,14 +2183,14 @@
       <c r="I38">
         <v>1</v>
       </c>
-      <c r="J38">
-        <v>3</v>
+      <c r="J38" t="s">
+        <v>47</v>
       </c>
       <c r="K38" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L38">
-        <v>4</v>
+        <v>3368</v>
       </c>
       <c r="M38">
         <v>24015</v>
@@ -2221,14 +2227,14 @@
       <c r="I39">
         <v>1</v>
       </c>
-      <c r="J39">
-        <v>3</v>
+      <c r="J39" t="s">
+        <v>48</v>
       </c>
       <c r="K39" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L39">
-        <v>4</v>
+        <v>7349</v>
       </c>
       <c r="M39">
         <v>24015</v>
@@ -2265,14 +2271,14 @@
       <c r="I40">
         <v>1</v>
       </c>
-      <c r="J40">
-        <v>3</v>
+      <c r="J40" t="s">
+        <v>48</v>
       </c>
       <c r="K40" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L40">
-        <v>4</v>
+        <v>1832</v>
       </c>
       <c r="M40">
         <v>24015</v>
@@ -2309,14 +2315,14 @@
       <c r="I41">
         <v>1</v>
       </c>
-      <c r="J41">
-        <v>3</v>
+      <c r="J41" t="s">
+        <v>48</v>
       </c>
       <c r="K41" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L41">
-        <v>4</v>
+        <v>2362</v>
       </c>
       <c r="M41">
         <v>24015</v>
@@ -2353,14 +2359,14 @@
       <c r="I42">
         <v>1</v>
       </c>
-      <c r="J42">
-        <v>3</v>
+      <c r="J42" t="s">
+        <v>47</v>
       </c>
       <c r="K42" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L42">
-        <v>4</v>
+        <v>6247</v>
       </c>
       <c r="M42">
         <v>24017</v>
@@ -2397,14 +2403,14 @@
       <c r="I43">
         <v>1</v>
       </c>
-      <c r="J43">
-        <v>3</v>
+      <c r="J43" t="s">
+        <v>47</v>
       </c>
       <c r="K43" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L43">
-        <v>4</v>
+        <v>15133</v>
       </c>
       <c r="M43">
         <v>24017</v>
@@ -2441,14 +2447,14 @@
       <c r="I44">
         <v>1</v>
       </c>
-      <c r="J44">
-        <v>3</v>
+      <c r="J44" t="s">
+        <v>48</v>
       </c>
       <c r="K44" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L44">
-        <v>4</v>
+        <v>6239</v>
       </c>
       <c r="M44">
         <v>24017</v>
@@ -2485,14 +2491,14 @@
       <c r="I45">
         <v>1</v>
       </c>
-      <c r="J45">
-        <v>3</v>
+      <c r="J45" t="s">
+        <v>48</v>
       </c>
       <c r="K45" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L45">
-        <v>4</v>
+        <v>1536</v>
       </c>
       <c r="M45">
         <v>24017</v>
@@ -2529,14 +2535,14 @@
       <c r="I46">
         <v>1</v>
       </c>
-      <c r="J46">
-        <v>3</v>
+      <c r="J46" t="s">
+        <v>48</v>
       </c>
       <c r="K46" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L46">
-        <v>4</v>
+        <v>2221</v>
       </c>
       <c r="M46">
         <v>24017</v>
@@ -2573,14 +2579,14 @@
       <c r="I47">
         <v>1</v>
       </c>
-      <c r="J47">
-        <v>3</v>
+      <c r="J47" t="s">
+        <v>47</v>
       </c>
       <c r="K47" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L47">
-        <v>4</v>
+        <v>952</v>
       </c>
       <c r="M47">
         <v>24019</v>
@@ -2617,14 +2623,14 @@
       <c r="I48">
         <v>1</v>
       </c>
-      <c r="J48">
-        <v>3</v>
+      <c r="J48" t="s">
+        <v>47</v>
       </c>
       <c r="K48" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L48">
-        <v>4</v>
+        <v>1801</v>
       </c>
       <c r="M48">
         <v>24019</v>
@@ -2661,14 +2667,14 @@
       <c r="I49">
         <v>1</v>
       </c>
-      <c r="J49">
-        <v>3</v>
+      <c r="J49" t="s">
+        <v>48</v>
       </c>
       <c r="K49" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L49">
-        <v>4</v>
+        <v>2745</v>
       </c>
       <c r="M49">
         <v>24019</v>
@@ -2705,14 +2711,14 @@
       <c r="I50">
         <v>1</v>
       </c>
-      <c r="J50">
-        <v>3</v>
+      <c r="J50" t="s">
+        <v>48</v>
       </c>
       <c r="K50" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L50">
-        <v>4</v>
+        <v>522</v>
       </c>
       <c r="M50">
         <v>24019</v>
@@ -2749,14 +2755,14 @@
       <c r="I51">
         <v>1</v>
       </c>
-      <c r="J51">
-        <v>3</v>
+      <c r="J51" t="s">
+        <v>48</v>
       </c>
       <c r="K51" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L51">
-        <v>4</v>
+        <v>474</v>
       </c>
       <c r="M51">
         <v>24019</v>
@@ -2793,14 +2799,14 @@
       <c r="I52">
         <v>1</v>
       </c>
-      <c r="J52">
-        <v>3</v>
+      <c r="J52" t="s">
+        <v>47</v>
       </c>
       <c r="K52" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L52">
-        <v>4</v>
+        <v>11325</v>
       </c>
       <c r="M52">
         <v>24021</v>
@@ -2837,14 +2843,14 @@
       <c r="I53">
         <v>1</v>
       </c>
-      <c r="J53">
-        <v>3</v>
+      <c r="J53" t="s">
+        <v>47</v>
       </c>
       <c r="K53" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L53">
-        <v>4</v>
+        <v>13467</v>
       </c>
       <c r="M53">
         <v>24021</v>
@@ -2881,14 +2887,14 @@
       <c r="I54">
         <v>1</v>
       </c>
-      <c r="J54">
-        <v>3</v>
+      <c r="J54" t="s">
+        <v>48</v>
       </c>
       <c r="K54" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L54">
-        <v>4</v>
+        <v>15077</v>
       </c>
       <c r="M54">
         <v>24021</v>
@@ -2925,14 +2931,14 @@
       <c r="I55">
         <v>1</v>
       </c>
-      <c r="J55">
-        <v>3</v>
+      <c r="J55" t="s">
+        <v>48</v>
       </c>
       <c r="K55" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L55">
-        <v>4</v>
+        <v>6015</v>
       </c>
       <c r="M55">
         <v>24021</v>
@@ -2969,14 +2975,14 @@
       <c r="I56">
         <v>1</v>
       </c>
-      <c r="J56">
-        <v>3</v>
+      <c r="J56" t="s">
+        <v>48</v>
       </c>
       <c r="K56" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L56">
-        <v>4</v>
+        <v>7212</v>
       </c>
       <c r="M56">
         <v>24021</v>
@@ -3013,14 +3019,14 @@
       <c r="I57">
         <v>1</v>
       </c>
-      <c r="J57">
-        <v>3</v>
+      <c r="J57" t="s">
+        <v>47</v>
       </c>
       <c r="K57" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L57">
-        <v>4</v>
+        <v>880</v>
       </c>
       <c r="M57">
         <v>24023</v>
@@ -3057,14 +3063,14 @@
       <c r="I58">
         <v>1</v>
       </c>
-      <c r="J58">
-        <v>3</v>
+      <c r="J58" t="s">
+        <v>47</v>
       </c>
       <c r="K58" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L58">
-        <v>4</v>
+        <v>761</v>
       </c>
       <c r="M58">
         <v>24023</v>
@@ -3101,14 +3107,14 @@
       <c r="I59">
         <v>1</v>
       </c>
-      <c r="J59">
-        <v>3</v>
+      <c r="J59" t="s">
+        <v>48</v>
       </c>
       <c r="K59" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L59">
-        <v>4</v>
+        <v>3565</v>
       </c>
       <c r="M59">
         <v>24023</v>
@@ -3145,14 +3151,14 @@
       <c r="I60">
         <v>1</v>
       </c>
-      <c r="J60">
-        <v>3</v>
+      <c r="J60" t="s">
+        <v>48</v>
       </c>
       <c r="K60" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L60">
-        <v>4</v>
+        <v>925</v>
       </c>
       <c r="M60">
         <v>24023</v>
@@ -3189,14 +3195,14 @@
       <c r="I61">
         <v>1</v>
       </c>
-      <c r="J61">
-        <v>3</v>
+      <c r="J61" t="s">
+        <v>48</v>
       </c>
       <c r="K61" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L61">
-        <v>4</v>
+        <v>1438</v>
       </c>
       <c r="M61">
         <v>24023</v>
@@ -3233,14 +3239,14 @@
       <c r="I62">
         <v>1</v>
       </c>
-      <c r="J62">
-        <v>3</v>
+      <c r="J62" t="s">
+        <v>47</v>
       </c>
       <c r="K62" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L62">
-        <v>4</v>
+        <v>10818</v>
       </c>
       <c r="M62">
         <v>24025</v>
@@ -3277,14 +3283,14 @@
       <c r="I63">
         <v>1</v>
       </c>
-      <c r="J63">
-        <v>3</v>
+      <c r="J63" t="s">
+        <v>47</v>
       </c>
       <c r="K63" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L63">
-        <v>4</v>
+        <v>13461</v>
       </c>
       <c r="M63">
         <v>24025</v>
@@ -3321,14 +3327,14 @@
       <c r="I64">
         <v>1</v>
       </c>
-      <c r="J64">
-        <v>3</v>
+      <c r="J64" t="s">
+        <v>48</v>
       </c>
       <c r="K64" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L64">
-        <v>4</v>
+        <v>21772</v>
       </c>
       <c r="M64">
         <v>24025</v>
@@ -3365,14 +3371,14 @@
       <c r="I65">
         <v>1</v>
       </c>
-      <c r="J65">
-        <v>3</v>
+      <c r="J65" t="s">
+        <v>48</v>
       </c>
       <c r="K65" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L65">
-        <v>4</v>
+        <v>7014</v>
       </c>
       <c r="M65">
         <v>24025</v>
@@ -3409,14 +3415,14 @@
       <c r="I66">
         <v>1</v>
       </c>
-      <c r="J66">
-        <v>3</v>
+      <c r="J66" t="s">
+        <v>48</v>
       </c>
       <c r="K66" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L66">
-        <v>4</v>
+        <v>5675</v>
       </c>
       <c r="M66">
         <v>24025</v>
@@ -3453,14 +3459,14 @@
       <c r="I67">
         <v>1</v>
       </c>
-      <c r="J67">
-        <v>3</v>
+      <c r="J67" t="s">
+        <v>47</v>
       </c>
       <c r="K67" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L67">
-        <v>4</v>
+        <v>18753</v>
       </c>
       <c r="M67">
         <v>24027</v>
@@ -3497,14 +3503,14 @@
       <c r="I68">
         <v>1</v>
       </c>
-      <c r="J68">
-        <v>3</v>
+      <c r="J68" t="s">
+        <v>47</v>
       </c>
       <c r="K68" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L68">
-        <v>4</v>
+        <v>30874</v>
       </c>
       <c r="M68">
         <v>24027</v>
@@ -3541,14 +3547,14 @@
       <c r="I69">
         <v>1</v>
       </c>
-      <c r="J69">
-        <v>3</v>
+      <c r="J69" t="s">
+        <v>48</v>
       </c>
       <c r="K69" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L69">
-        <v>4</v>
+        <v>10995</v>
       </c>
       <c r="M69">
         <v>24027</v>
@@ -3585,14 +3591,14 @@
       <c r="I70">
         <v>1</v>
       </c>
-      <c r="J70">
-        <v>3</v>
+      <c r="J70" t="s">
+        <v>48</v>
       </c>
       <c r="K70" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L70">
-        <v>4</v>
+        <v>9910</v>
       </c>
       <c r="M70">
         <v>24027</v>
@@ -3629,14 +3635,14 @@
       <c r="I71">
         <v>1</v>
       </c>
-      <c r="J71">
-        <v>3</v>
+      <c r="J71" t="s">
+        <v>48</v>
       </c>
       <c r="K71" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L71">
-        <v>4</v>
+        <v>5283</v>
       </c>
       <c r="M71">
         <v>24027</v>
@@ -3673,14 +3679,14 @@
       <c r="I72">
         <v>1</v>
       </c>
-      <c r="J72">
-        <v>3</v>
+      <c r="J72" t="s">
+        <v>47</v>
       </c>
       <c r="K72" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L72">
-        <v>4</v>
+        <v>1019</v>
       </c>
       <c r="M72">
         <v>24029</v>
@@ -3717,14 +3723,14 @@
       <c r="I73">
         <v>1</v>
       </c>
-      <c r="J73">
-        <v>3</v>
+      <c r="J73" t="s">
+        <v>47</v>
       </c>
       <c r="K73" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L73">
-        <v>4</v>
+        <v>1461</v>
       </c>
       <c r="M73">
         <v>24029</v>
@@ -3761,14 +3767,14 @@
       <c r="I74">
         <v>1</v>
       </c>
-      <c r="J74">
-        <v>3</v>
+      <c r="J74" t="s">
+        <v>48</v>
       </c>
       <c r="K74" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L74">
-        <v>4</v>
+        <v>1402</v>
       </c>
       <c r="M74">
         <v>24029</v>
@@ -3805,14 +3811,14 @@
       <c r="I75">
         <v>1</v>
       </c>
-      <c r="J75">
-        <v>3</v>
+      <c r="J75" t="s">
+        <v>48</v>
       </c>
       <c r="K75" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L75">
-        <v>4</v>
+        <v>526</v>
       </c>
       <c r="M75">
         <v>24029</v>
@@ -3849,14 +3855,14 @@
       <c r="I76">
         <v>1</v>
       </c>
-      <c r="J76">
-        <v>3</v>
+      <c r="J76" t="s">
+        <v>48</v>
       </c>
       <c r="K76" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L76">
-        <v>4</v>
+        <v>320</v>
       </c>
       <c r="M76">
         <v>24029</v>
@@ -3893,14 +3899,14 @@
       <c r="I77">
         <v>1</v>
       </c>
-      <c r="J77">
-        <v>3</v>
+      <c r="J77" t="s">
+        <v>47</v>
       </c>
       <c r="K77" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L77">
-        <v>4</v>
+        <v>50742</v>
       </c>
       <c r="M77">
         <v>24031</v>
@@ -3937,14 +3943,14 @@
       <c r="I78">
         <v>1</v>
       </c>
-      <c r="J78">
-        <v>3</v>
+      <c r="J78" t="s">
+        <v>47</v>
       </c>
       <c r="K78" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L78">
-        <v>4</v>
+        <v>109305</v>
       </c>
       <c r="M78">
         <v>24031</v>
@@ -3981,14 +3987,14 @@
       <c r="I79">
         <v>1</v>
       </c>
-      <c r="J79">
-        <v>3</v>
+      <c r="J79" t="s">
+        <v>48</v>
       </c>
       <c r="K79" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L79">
-        <v>4</v>
+        <v>17645</v>
       </c>
       <c r="M79">
         <v>24031</v>
@@ -4025,14 +4031,14 @@
       <c r="I80">
         <v>1</v>
       </c>
-      <c r="J80">
-        <v>3</v>
+      <c r="J80" t="s">
+        <v>48</v>
       </c>
       <c r="K80" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L80">
-        <v>4</v>
+        <v>15911</v>
       </c>
       <c r="M80">
         <v>24031</v>
@@ -4069,14 +4075,14 @@
       <c r="I81">
         <v>1</v>
       </c>
-      <c r="J81">
-        <v>3</v>
+      <c r="J81" t="s">
+        <v>48</v>
       </c>
       <c r="K81" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L81">
-        <v>4</v>
+        <v>9943</v>
       </c>
       <c r="M81">
         <v>24031</v>
@@ -4113,14 +4119,14 @@
       <c r="I82">
         <v>1</v>
       </c>
-      <c r="J82">
-        <v>3</v>
+      <c r="J82" t="s">
+        <v>47</v>
       </c>
       <c r="K82" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L82">
-        <v>4</v>
+        <v>37200</v>
       </c>
       <c r="M82">
         <v>24033</v>
@@ -4157,14 +4163,14 @@
       <c r="I83">
         <v>1</v>
       </c>
-      <c r="J83">
-        <v>3</v>
+      <c r="J83" t="s">
+        <v>47</v>
       </c>
       <c r="K83" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L83">
-        <v>4</v>
+        <v>113913</v>
       </c>
       <c r="M83">
         <v>24033</v>
@@ -4201,14 +4207,14 @@
       <c r="I84">
         <v>1</v>
       </c>
-      <c r="J84">
-        <v>3</v>
+      <c r="J84" t="s">
+        <v>48</v>
       </c>
       <c r="K84" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L84">
-        <v>4</v>
+        <v>5636</v>
       </c>
       <c r="M84">
         <v>24033</v>
@@ -4245,14 +4251,14 @@
       <c r="I85">
         <v>1</v>
       </c>
-      <c r="J85">
-        <v>3</v>
+      <c r="J85" t="s">
+        <v>48</v>
       </c>
       <c r="K85" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L85">
-        <v>4</v>
+        <v>3262</v>
       </c>
       <c r="M85">
         <v>24033</v>
@@ -4289,14 +4295,14 @@
       <c r="I86">
         <v>1</v>
       </c>
-      <c r="J86">
-        <v>3</v>
+      <c r="J86" t="s">
+        <v>48</v>
       </c>
       <c r="K86" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L86">
-        <v>4</v>
+        <v>3394</v>
       </c>
       <c r="M86">
         <v>24033</v>
@@ -4333,14 +4339,14 @@
       <c r="I87">
         <v>1</v>
       </c>
-      <c r="J87">
-        <v>3</v>
+      <c r="J87" t="s">
+        <v>47</v>
       </c>
       <c r="K87" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L87">
-        <v>4</v>
+        <v>1760</v>
       </c>
       <c r="M87">
         <v>24035</v>
@@ -4377,14 +4383,14 @@
       <c r="I88">
         <v>1</v>
       </c>
-      <c r="J88">
-        <v>3</v>
+      <c r="J88" t="s">
+        <v>47</v>
       </c>
       <c r="K88" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L88">
-        <v>4</v>
+        <v>2343</v>
       </c>
       <c r="M88">
         <v>24035</v>
@@ -4421,14 +4427,14 @@
       <c r="I89">
         <v>1</v>
       </c>
-      <c r="J89">
-        <v>3</v>
+      <c r="J89" t="s">
+        <v>48</v>
       </c>
       <c r="K89" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L89">
-        <v>4</v>
+        <v>5196</v>
       </c>
       <c r="M89">
         <v>24035</v>
@@ -4465,14 +4471,14 @@
       <c r="I90">
         <v>1</v>
       </c>
-      <c r="J90">
-        <v>3</v>
+      <c r="J90" t="s">
+        <v>48</v>
       </c>
       <c r="K90" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L90">
-        <v>4</v>
+        <v>1477</v>
       </c>
       <c r="M90">
         <v>24035</v>
@@ -4509,14 +4515,14 @@
       <c r="I91">
         <v>1</v>
       </c>
-      <c r="J91">
-        <v>3</v>
+      <c r="J91" t="s">
+        <v>48</v>
       </c>
       <c r="K91" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L91">
-        <v>4</v>
+        <v>1183</v>
       </c>
       <c r="M91">
         <v>24035</v>
@@ -4553,14 +4559,14 @@
       <c r="I92">
         <v>1</v>
       </c>
-      <c r="J92">
-        <v>3</v>
+      <c r="J92" t="s">
+        <v>47</v>
       </c>
       <c r="K92" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L92">
-        <v>4</v>
+        <v>534</v>
       </c>
       <c r="M92">
         <v>24039</v>
@@ -4597,14 +4603,14 @@
       <c r="I93">
         <v>1</v>
       </c>
-      <c r="J93">
-        <v>3</v>
+      <c r="J93" t="s">
+        <v>47</v>
       </c>
       <c r="K93" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L93">
-        <v>4</v>
+        <v>1137</v>
       </c>
       <c r="M93">
         <v>24039</v>
@@ -4641,14 +4647,14 @@
       <c r="I94">
         <v>1</v>
       </c>
-      <c r="J94">
-        <v>3</v>
+      <c r="J94" t="s">
+        <v>48</v>
       </c>
       <c r="K94" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L94">
-        <v>4</v>
+        <v>1687</v>
       </c>
       <c r="M94">
         <v>24039</v>
@@ -4685,14 +4691,14 @@
       <c r="I95">
         <v>1</v>
       </c>
-      <c r="J95">
-        <v>3</v>
+      <c r="J95" t="s">
+        <v>48</v>
       </c>
       <c r="K95" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L95">
-        <v>4</v>
+        <v>238</v>
       </c>
       <c r="M95">
         <v>24039</v>
@@ -4729,14 +4735,14 @@
       <c r="I96">
         <v>1</v>
       </c>
-      <c r="J96">
-        <v>3</v>
+      <c r="J96" t="s">
+        <v>48</v>
       </c>
       <c r="K96" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L96">
-        <v>4</v>
+        <v>475</v>
       </c>
       <c r="M96">
         <v>24039</v>
@@ -4773,14 +4779,14 @@
       <c r="I97">
         <v>1</v>
       </c>
-      <c r="J97">
-        <v>3</v>
+      <c r="J97" t="s">
+        <v>47</v>
       </c>
       <c r="K97" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L97">
-        <v>4</v>
+        <v>3416</v>
       </c>
       <c r="M97">
         <v>24037</v>
@@ -4817,14 +4823,14 @@
       <c r="I98">
         <v>1</v>
       </c>
-      <c r="J98">
-        <v>3</v>
+      <c r="J98" t="s">
+        <v>47</v>
       </c>
       <c r="K98" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L98">
-        <v>4</v>
+        <v>4552</v>
       </c>
       <c r="M98">
         <v>24037</v>
@@ -4861,14 +4867,14 @@
       <c r="I99">
         <v>1</v>
       </c>
-      <c r="J99">
-        <v>3</v>
+      <c r="J99" t="s">
+        <v>48</v>
       </c>
       <c r="K99" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L99">
-        <v>4</v>
+        <v>6577</v>
       </c>
       <c r="M99">
         <v>24037</v>
@@ -4905,14 +4911,14 @@
       <c r="I100">
         <v>1</v>
       </c>
-      <c r="J100">
-        <v>3</v>
+      <c r="J100" t="s">
+        <v>48</v>
       </c>
       <c r="K100" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L100">
-        <v>4</v>
+        <v>2157</v>
       </c>
       <c r="M100">
         <v>24037</v>
@@ -4949,14 +4955,14 @@
       <c r="I101">
         <v>1</v>
       </c>
-      <c r="J101">
-        <v>3</v>
+      <c r="J101" t="s">
+        <v>48</v>
       </c>
       <c r="K101" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L101">
-        <v>4</v>
+        <v>2647</v>
       </c>
       <c r="M101">
         <v>24037</v>
@@ -4993,14 +4999,14 @@
       <c r="I102">
         <v>1</v>
       </c>
-      <c r="J102">
-        <v>3</v>
+      <c r="J102" t="s">
+        <v>47</v>
       </c>
       <c r="K102" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L102">
-        <v>4</v>
+        <v>1446</v>
       </c>
       <c r="M102">
         <v>24041</v>
@@ -5037,14 +5043,14 @@
       <c r="I103">
         <v>1</v>
       </c>
-      <c r="J103">
-        <v>3</v>
+      <c r="J103" t="s">
+        <v>47</v>
       </c>
       <c r="K103" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L103">
-        <v>4</v>
+        <v>2578</v>
       </c>
       <c r="M103">
         <v>24041</v>
@@ -5081,14 +5087,14 @@
       <c r="I104">
         <v>1</v>
       </c>
-      <c r="J104">
-        <v>3</v>
+      <c r="J104" t="s">
+        <v>48</v>
       </c>
       <c r="K104" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L104">
-        <v>4</v>
+        <v>3105</v>
       </c>
       <c r="M104">
         <v>24041</v>
@@ -5125,14 +5131,14 @@
       <c r="I105">
         <v>1</v>
       </c>
-      <c r="J105">
-        <v>3</v>
+      <c r="J105" t="s">
+        <v>48</v>
       </c>
       <c r="K105" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L105">
-        <v>4</v>
+        <v>1500</v>
       </c>
       <c r="M105">
         <v>24041</v>
@@ -5169,14 +5175,14 @@
       <c r="I106">
         <v>1</v>
       </c>
-      <c r="J106">
-        <v>3</v>
+      <c r="J106" t="s">
+        <v>48</v>
       </c>
       <c r="K106" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L106">
-        <v>4</v>
+        <v>834</v>
       </c>
       <c r="M106">
         <v>24041</v>
@@ -5213,14 +5219,14 @@
       <c r="I107">
         <v>1</v>
       </c>
-      <c r="J107">
-        <v>3</v>
+      <c r="J107" t="s">
+        <v>47</v>
       </c>
       <c r="K107" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L107">
-        <v>4</v>
+        <v>4868</v>
       </c>
       <c r="M107">
         <v>24043</v>
@@ -5257,14 +5263,14 @@
       <c r="I108">
         <v>1</v>
       </c>
-      <c r="J108">
-        <v>3</v>
+      <c r="J108" t="s">
+        <v>47</v>
       </c>
       <c r="K108" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L108">
-        <v>4</v>
+        <v>5852</v>
       </c>
       <c r="M108">
         <v>24043</v>
@@ -5301,14 +5307,14 @@
       <c r="I109">
         <v>1</v>
       </c>
-      <c r="J109">
-        <v>3</v>
+      <c r="J109" t="s">
+        <v>48</v>
       </c>
       <c r="K109" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L109">
-        <v>4</v>
+        <v>11971</v>
       </c>
       <c r="M109">
         <v>24043</v>
@@ -5345,14 +5351,14 @@
       <c r="I110">
         <v>1</v>
       </c>
-      <c r="J110">
-        <v>3</v>
+      <c r="J110" t="s">
+        <v>48</v>
       </c>
       <c r="K110" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L110">
-        <v>4</v>
+        <v>2558</v>
       </c>
       <c r="M110">
         <v>24043</v>
@@ -5389,14 +5395,14 @@
       <c r="I111">
         <v>1</v>
       </c>
-      <c r="J111">
-        <v>3</v>
+      <c r="J111" t="s">
+        <v>48</v>
       </c>
       <c r="K111" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L111">
-        <v>4</v>
+        <v>4405</v>
       </c>
       <c r="M111">
         <v>24043</v>
@@ -5433,14 +5439,14 @@
       <c r="I112">
         <v>1</v>
       </c>
-      <c r="J112">
-        <v>3</v>
+      <c r="J112" t="s">
+        <v>47</v>
       </c>
       <c r="K112" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L112">
-        <v>4</v>
+        <v>3120</v>
       </c>
       <c r="M112">
         <v>24045</v>
@@ -5477,14 +5483,14 @@
       <c r="I113">
         <v>1</v>
       </c>
-      <c r="J113">
-        <v>3</v>
+      <c r="J113" t="s">
+        <v>47</v>
       </c>
       <c r="K113" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L113">
-        <v>4</v>
+        <v>5259</v>
       </c>
       <c r="M113">
         <v>24045</v>
@@ -5521,14 +5527,14 @@
       <c r="I114">
         <v>1</v>
       </c>
-      <c r="J114">
-        <v>3</v>
+      <c r="J114" t="s">
+        <v>48</v>
       </c>
       <c r="K114" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L114">
-        <v>4</v>
+        <v>6999</v>
       </c>
       <c r="M114">
         <v>24045</v>
@@ -5565,14 +5571,14 @@
       <c r="I115">
         <v>1</v>
       </c>
-      <c r="J115">
-        <v>3</v>
+      <c r="J115" t="s">
+        <v>48</v>
       </c>
       <c r="K115" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L115">
-        <v>4</v>
+        <v>1631</v>
       </c>
       <c r="M115">
         <v>24045</v>
@@ -5609,14 +5615,14 @@
       <c r="I116">
         <v>1</v>
       </c>
-      <c r="J116">
-        <v>3</v>
+      <c r="J116" t="s">
+        <v>48</v>
       </c>
       <c r="K116" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L116">
-        <v>4</v>
+        <v>1829</v>
       </c>
       <c r="M116">
         <v>24045</v>
@@ -5653,14 +5659,14 @@
       <c r="I117">
         <v>1</v>
       </c>
-      <c r="J117">
-        <v>3</v>
+      <c r="J117" t="s">
+        <v>47</v>
       </c>
       <c r="K117" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L117">
-        <v>4</v>
+        <v>1940</v>
       </c>
       <c r="M117">
         <v>24047</v>
@@ -5697,14 +5703,14 @@
       <c r="I118">
         <v>1</v>
       </c>
-      <c r="J118">
-        <v>3</v>
+      <c r="J118" t="s">
+        <v>47</v>
       </c>
       <c r="K118" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L118">
-        <v>4</v>
+        <v>3006</v>
       </c>
       <c r="M118">
         <v>24047</v>
@@ -5741,14 +5747,14 @@
       <c r="I119">
         <v>1</v>
       </c>
-      <c r="J119">
-        <v>3</v>
+      <c r="J119" t="s">
+        <v>48</v>
       </c>
       <c r="K119" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L119">
-        <v>4</v>
+        <v>5809</v>
       </c>
       <c r="M119">
         <v>24047</v>
@@ -5785,14 +5791,14 @@
       <c r="I120">
         <v>1</v>
       </c>
-      <c r="J120">
-        <v>3</v>
+      <c r="J120" t="s">
+        <v>48</v>
       </c>
       <c r="K120" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L120">
-        <v>4</v>
+        <v>1136</v>
       </c>
       <c r="M120">
         <v>24047</v>
@@ -5829,14 +5835,14 @@
       <c r="I121">
         <v>1</v>
       </c>
-      <c r="J121">
-        <v>3</v>
+      <c r="J121" t="s">
+        <v>48</v>
       </c>
       <c r="K121" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L121">
-        <v>4</v>
+        <v>883</v>
       </c>
       <c r="M121">
         <v>24047</v>
